--- a/cs-models/eai/dam/nga.gov/NGAIT211002.xlsx
+++ b/cs-models/eai/dam/nga.gov/NGAIT211002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmakarieva\git\models\eai\dam\nga.gov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-eclipse\cs-models-new\models\eai\dam\nga.gov\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -345,7 +345,7 @@
     <t>emf:heightOfSubject</t>
   </si>
   <si>
-    <t>n..10,3</t>
+    <t>n..24,20</t>
   </si>
 </sst>
 </file>
@@ -666,7 +666,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
